--- a/Futuro/results/Roya_Presente_avg_RF.xlsx
+++ b/Futuro/results/Roya_Presente_avg_RF.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>66.07925974948478</v>
+        <v>66.17311944972897</v>
       </c>
       <c r="B2">
         <v>37.49194444</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53.67526683619679</v>
+        <v>54.41248733763034</v>
       </c>
       <c r="B3">
         <v>37.78694444</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54.60321494674681</v>
+        <v>54.7944543929291</v>
       </c>
       <c r="B4">
         <v>28.79722222</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>51.89333503893344</v>
+        <v>52.20588514849629</v>
       </c>
       <c r="B5">
         <v>37.76888889</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>60.11869948701234</v>
+        <v>59.58598530936568</v>
       </c>
       <c r="B6">
         <v>42.22166667</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>49.5067086798559</v>
+        <v>50.06497815331969</v>
       </c>
       <c r="B7">
         <v>42.4925</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57.13465622292603</v>
+        <v>56.27508271901678</v>
       </c>
       <c r="B8">
         <v>39.77111111</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>65.92355038087064</v>
+        <v>65.52322145401462</v>
       </c>
       <c r="B9">
         <v>41.33166667</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>58.58118020151997</v>
+        <v>59.14687641747313</v>
       </c>
       <c r="B10">
         <v>42.13388889</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>61.26459397542696</v>
+        <v>60.78996745502914</v>
       </c>
       <c r="B11">
         <v>42.21333333</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>66.98413403346893</v>
+        <v>68.32841455453162</v>
       </c>
       <c r="B12">
         <v>39.92333333</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>59.27281654658207</v>
+        <v>59.59005057052018</v>
       </c>
       <c r="B13">
         <v>38.11027778</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>64.62461986922385</v>
+        <v>65.00420836623238</v>
       </c>
       <c r="B14">
         <v>40.86972222</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>70.84869542276392</v>
+        <v>70.57610022976785</v>
       </c>
       <c r="B15">
         <v>40.92638889</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>49.44550521162182</v>
+        <v>49.33682101991425</v>
       </c>
       <c r="B16">
         <v>42.80833333</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55.29233995777342</v>
+        <v>55.81901295776525</v>
       </c>
       <c r="B17">
         <v>40.51166667</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>67.13949599724413</v>
+        <v>68.28489096665064</v>
       </c>
       <c r="B18">
         <v>40.21138889</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>59.31858109053963</v>
+        <v>59.86217764489496</v>
       </c>
       <c r="B19">
         <v>40.14277778</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>58.68073155956114</v>
+        <v>58.25086634222198</v>
       </c>
       <c r="B20">
         <v>40.03888889</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>65.44989931468574</v>
+        <v>66.22661845605003</v>
       </c>
       <c r="B21">
         <v>39.82416667</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>73.30971572424971</v>
+        <v>71.76467753986074</v>
       </c>
       <c r="B22">
         <v>39.525</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>67.33045307193774</v>
+        <v>68.24498121620593</v>
       </c>
       <c r="B23">
         <v>39.50027778</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>65.8482942748753</v>
+        <v>66.17019279364881</v>
       </c>
       <c r="B24">
         <v>39.36666667</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>72.92157822765923</v>
+        <v>72.18856992134508</v>
       </c>
       <c r="B25">
         <v>39.35722222</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>68.42335553089993</v>
+        <v>68.40532993580065</v>
       </c>
       <c r="B26">
         <v>38.63583333</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>62.66448327140697</v>
+        <v>62.4955741514827</v>
       </c>
       <c r="B27">
         <v>38.62194444</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>67.50694412154658</v>
+        <v>66.97292211402105</v>
       </c>
       <c r="B28">
         <v>38.75194444</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>66.02099499170471</v>
+        <v>65.89056869055511</v>
       </c>
       <c r="B29">
         <v>38.72222222</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>65.35531708716071</v>
+        <v>65.3918223591586</v>
       </c>
       <c r="B30">
         <v>38.96333333</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>65.25890357677156</v>
+        <v>65.5594966955221</v>
       </c>
       <c r="B31">
         <v>38.88527778</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>66.45925754399497</v>
+        <v>66.57489372468694</v>
       </c>
       <c r="B32">
         <v>39.28833333</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>65.80325541089537</v>
+        <v>65.72460079918491</v>
       </c>
       <c r="B33">
         <v>39.26666667</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>61.42891798410764</v>
+        <v>61.21691288732644</v>
       </c>
       <c r="B34">
         <v>39.25666667</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>62.42962542832504</v>
+        <v>62.57955952977407</v>
       </c>
       <c r="B35">
         <v>39.115</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>62.8107673627611</v>
+        <v>63.60479052084128</v>
       </c>
       <c r="B36">
         <v>39.32472222</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>82.43750791763568</v>
+        <v>82.13217997429213</v>
       </c>
       <c r="B37">
         <v>39.33333333</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>66.56140858281961</v>
+        <v>66.46593222639649</v>
       </c>
       <c r="B38">
         <v>40.90361111</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>57.32138944049016</v>
+        <v>57.54223359789795</v>
       </c>
       <c r="B39">
         <v>40.95388889</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>66.69359012862516</v>
+        <v>66.63473681695598</v>
       </c>
       <c r="B40">
         <v>40.86444444</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>53.48285182773368</v>
+        <v>53.38191642831752</v>
       </c>
       <c r="B41">
         <v>43.15222222</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>60.91585123179001</v>
+        <v>61.28808285487159</v>
       </c>
       <c r="B42">
         <v>41.82083333</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>53.7569480282387</v>
+        <v>54.43155999098828</v>
       </c>
       <c r="B43">
         <v>42.53472222</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>61.11623994988656</v>
+        <v>59.7644630011454</v>
       </c>
       <c r="B44">
         <v>42.33888889</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>59.21468161283119</v>
+        <v>59.77257695134498</v>
       </c>
       <c r="B45">
         <v>42.275</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>57.44242977150188</v>
+        <v>57.09784264443328</v>
       </c>
       <c r="B46">
         <v>41.37472222</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>52.51462323541395</v>
+        <v>51.70189218639357</v>
       </c>
       <c r="B47">
         <v>42.07833333</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>57.16764934528386</v>
+        <v>57.5489225112031</v>
       </c>
       <c r="B48">
         <v>42.33</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>58.8034253408738</v>
+        <v>59.51129697790091</v>
       </c>
       <c r="B49">
         <v>42.40944444</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>59.62095742452381</v>
+        <v>59.85920231455829</v>
       </c>
       <c r="B50">
         <v>41.04388889</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>65.92527572363949</v>
+        <v>66.18575007684456</v>
       </c>
       <c r="B51">
         <v>38.99722222</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>53.18884348721039</v>
+        <v>52.69957370882072</v>
       </c>
       <c r="B52">
         <v>42.82777778</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>56.81069849457468</v>
+        <v>57.28069686974229</v>
       </c>
       <c r="B53">
         <v>42.57166667</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>68.06023476412371</v>
+        <v>68.23294388560498</v>
       </c>
       <c r="B54">
         <v>42.275</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>47.66051265654786</v>
+        <v>47.48848973918464</v>
       </c>
       <c r="B55">
         <v>42.95138889</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>53.42447127797983</v>
+        <v>53.82731684646755</v>
       </c>
       <c r="B56">
         <v>42.98472222</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>45.01974315546411</v>
+        <v>44.8699410242841</v>
       </c>
       <c r="B57">
         <v>42.95</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>52.98252342597292</v>
+        <v>53.431853343337</v>
       </c>
       <c r="B58">
         <v>42.89305556</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>51.00654102544061</v>
+        <v>50.64689773017834</v>
       </c>
       <c r="B59">
         <v>42.95277778</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>51.47942479237432</v>
+        <v>52.14940640089708</v>
       </c>
       <c r="B60">
         <v>42.88611111</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>51.4800653532624</v>
+        <v>51.77511938550034</v>
       </c>
       <c r="B61">
         <v>42.97333333</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>56.97920203273032</v>
+        <v>57.09166015314201</v>
       </c>
       <c r="B62">
         <v>43.00277778</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>64.53646413010975</v>
+        <v>64.19332907420352</v>
       </c>
       <c r="B63">
         <v>42.295</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>65.60994862867037</v>
+        <v>65.2662104526547</v>
       </c>
       <c r="B64">
         <v>41.0775</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>68.72749253670916</v>
+        <v>68.25499003885018</v>
       </c>
       <c r="B65">
         <v>41.065</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>77.3370240812628</v>
+        <v>76.78083053017605</v>
       </c>
       <c r="B66">
         <v>41.11527778</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>59.18845639391326</v>
+        <v>59.49006407125178</v>
       </c>
       <c r="B67">
         <v>41.07472222</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>64.4079445810068</v>
+        <v>64.55279700443538</v>
       </c>
       <c r="B68">
         <v>41.70083333</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>61.59587258615691</v>
+        <v>61.75994278169562</v>
       </c>
       <c r="B69">
         <v>42.35694444</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>59.98382629935632</v>
+        <v>59.82529941812459</v>
       </c>
       <c r="B70">
         <v>42.29777778</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>61.45817682109234</v>
+        <v>61.48319119227119</v>
       </c>
       <c r="B71">
         <v>42.35083333</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>55.18010469993443</v>
+        <v>54.10632556860178</v>
       </c>
       <c r="B72">
         <v>40.74527778</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>60.41996712317884</v>
+        <v>58.48361495131634</v>
       </c>
       <c r="B73">
         <v>40.75138889</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>52.03280489955852</v>
+        <v>52.01915699028287</v>
       </c>
       <c r="B74">
         <v>40.58805556</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53.14822584017588</v>
+        <v>52.5640251174454</v>
       </c>
       <c r="B75">
         <v>40.73611111</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>68.70973867381728</v>
+        <v>68.68579284586269</v>
       </c>
       <c r="B76">
         <v>40.54472222</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>65.03088123181543</v>
+        <v>64.85832295195017</v>
       </c>
       <c r="B77">
         <v>40.53166667</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>67.31889403106544</v>
+        <v>67.70401975034255</v>
       </c>
       <c r="B78">
         <v>39.06861111</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>65.32096663302515</v>
+        <v>65.09602868308278</v>
       </c>
       <c r="B79">
         <v>38.71111111</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>64.17228129718578</v>
+        <v>64.21969812250708</v>
       </c>
       <c r="B80">
         <v>38.98805556</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>68.33715978954881</v>
+        <v>68.92719694689008</v>
       </c>
       <c r="B81">
         <v>39.96138889</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>73.24668176546064</v>
+        <v>73.25844752727996</v>
       </c>
       <c r="B82">
         <v>39.96638889</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53.6358748808448</v>
+        <v>54.26797762253194</v>
       </c>
       <c r="B83">
         <v>42.60861111</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>58.69673852026428</v>
+        <v>57.9203314064811</v>
       </c>
       <c r="B84">
         <v>42.32166667</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>65.62660431892215</v>
+        <v>65.47745045642647</v>
       </c>
       <c r="B85">
         <v>42.25416667</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>70.07178494767257</v>
+        <v>69.76618441155583</v>
       </c>
       <c r="B86">
         <v>40.32361111</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>67.30664530060966</v>
+        <v>66.88665108755939</v>
       </c>
       <c r="B87">
         <v>41.24305556</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>51.65081934637373</v>
+        <v>51.60481340249696</v>
       </c>
       <c r="B88">
         <v>40.19583333</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>64.6121851674346</v>
+        <v>64.28476857995054</v>
       </c>
       <c r="B89">
         <v>38.70277778</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>64.6819516542495</v>
+        <v>64.45630544091154</v>
       </c>
       <c r="B90">
         <v>39.13666667</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>73.44433515833256</v>
+        <v>73.59954560413286</v>
       </c>
       <c r="B91">
         <v>39.62722222</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>64.2835567787555</v>
+        <v>64.6071305500696</v>
       </c>
       <c r="B92">
         <v>28.60944444</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>62.67620009362849</v>
+        <v>61.45959757546751</v>
       </c>
       <c r="B93">
         <v>28.5325</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>68.53702167987669</v>
+        <v>67.72417061893839</v>
       </c>
       <c r="B94">
         <v>28.39583333</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>65.64185949483934</v>
+        <v>65.63462604199098</v>
       </c>
       <c r="B95">
         <v>41.94305556</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>63.68398134125978</v>
+        <v>63.5293880966999</v>
       </c>
       <c r="B96">
         <v>37.71944444</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>52.96448465929603</v>
+        <v>53.37669085933701</v>
       </c>
       <c r="B97">
         <v>37.3225</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>55.3370046925202</v>
+        <v>54.85637596341593</v>
       </c>
       <c r="B98">
         <v>36.94611111</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>65.64021823734653</v>
+        <v>65.69856952582064</v>
       </c>
       <c r="B99">
         <v>39.20833333</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>75.83189701258118</v>
+        <v>75.61792299410666</v>
       </c>
       <c r="B100">
         <v>39.2725</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>68.36595441173188</v>
+        <v>68.60774970750123</v>
       </c>
       <c r="B101">
         <v>39.81805556</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>50.72906329170907</v>
+        <v>50.93952588470567</v>
       </c>
       <c r="B102">
         <v>42.77416667</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>43.21291780406441</v>
+        <v>43.05018370103062</v>
       </c>
       <c r="B103">
         <v>42.46388889</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>53.7291170623622</v>
+        <v>53.47128208207826</v>
       </c>
       <c r="B104">
         <v>42.96944444</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>58.86528501847428</v>
+        <v>58.68866445349997</v>
       </c>
       <c r="B105">
         <v>28.96666667</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>52.52876338213786</v>
+        <v>52.83649778332767</v>
       </c>
       <c r="B106">
         <v>37.17722222</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>52.46991584275708</v>
+        <v>52.08700935743637</v>
       </c>
       <c r="B107">
         <v>42.94305556</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>48.6325635104638</v>
+        <v>48.53248811486903</v>
       </c>
       <c r="B108">
         <v>43.00694444</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>54.62158841154799</v>
+        <v>54.902026488971</v>
       </c>
       <c r="B109">
         <v>42.91666667</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>58.77741850193189</v>
+        <v>58.7405193069312</v>
       </c>
       <c r="B110">
         <v>38.07055556</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>65.54073673470721</v>
+        <v>64.9492438959002</v>
       </c>
       <c r="B111">
         <v>40.00861111</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>43.19334698887509</v>
+        <v>43.78831550831071</v>
       </c>
       <c r="B112">
         <v>37.18277778</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>63.095951184822</v>
+        <v>62.8377471803366</v>
       </c>
       <c r="B113">
         <v>37.39583333</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>63.92253049739633</v>
+        <v>64.04116669781349</v>
       </c>
       <c r="B114">
         <v>40.88416667</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>65.67840605913558</v>
+        <v>65.73208501985188</v>
       </c>
       <c r="B115">
         <v>40.735</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>63.61288452851739</v>
+        <v>63.97183072013978</v>
       </c>
       <c r="B116">
         <v>40.50305556</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>62.64533689566122</v>
+        <v>62.65952650190369</v>
       </c>
       <c r="B117">
         <v>40.51916667</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>69.521452376721</v>
+        <v>69.36682353958682</v>
       </c>
       <c r="B118">
         <v>40.29916667</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>59.62619003032678</v>
+        <v>58.93582430935341</v>
       </c>
       <c r="B119">
         <v>40.75833333</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>63.44981991151366</v>
+        <v>63.64690952917953</v>
       </c>
       <c r="B120">
         <v>40.82444444</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>53.47594208870387</v>
+        <v>54.09702092714399</v>
       </c>
       <c r="B121">
         <v>40.745</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>65.41072027952106</v>
+        <v>65.50475811010398</v>
       </c>
       <c r="B122">
         <v>40.93972222</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>67.54202416742237</v>
+        <v>67.44819422056854</v>
       </c>
       <c r="B123">
         <v>40.68333333</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>65.59716821869372</v>
+        <v>66.11279221010665</v>
       </c>
       <c r="B124">
         <v>40.63333333</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>63.64022739187324</v>
+        <v>63.93632628310317</v>
       </c>
       <c r="B125">
         <v>40.68833333</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>67.45679003391579</v>
+        <v>67.14617755389227</v>
       </c>
       <c r="B126">
         <v>41.40805556</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>64.12007526773904</v>
+        <v>63.70577503947809</v>
       </c>
       <c r="B127">
         <v>40.46361111</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>51.78888560326023</v>
+        <v>51.82361376718307</v>
       </c>
       <c r="B128">
         <v>43.13472222</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>67.09305193932607</v>
+        <v>66.07618545636214</v>
       </c>
       <c r="B129">
         <v>38.61388889</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>57.65664951686864</v>
+        <v>58.80350120388557</v>
       </c>
       <c r="B130">
         <v>41.01972222</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>62.00569929541017</v>
+        <v>62.65794454593144</v>
       </c>
       <c r="B131">
         <v>37.67083333</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>37.2029449822075</v>
+        <v>36.3797966913407</v>
       </c>
       <c r="B132">
         <v>39.72222222</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>63.60586778434912</v>
+        <v>63.75882993931204</v>
       </c>
       <c r="B133">
         <v>41.2325</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>50.01320394389378</v>
+        <v>49.9471093463715</v>
       </c>
       <c r="B134">
         <v>37.34388889</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>47.90799840564384</v>
+        <v>47.67527757260687</v>
       </c>
       <c r="B135">
         <v>37.35194444</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>48.04866406548184</v>
+        <v>48.20103230801591</v>
       </c>
       <c r="B136">
         <v>37.57305556</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>51.97614097059645</v>
+        <v>52.52203296341293</v>
       </c>
       <c r="B137">
         <v>28.56666667</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>71.16505403535766</v>
+        <v>71.97474635939183</v>
       </c>
       <c r="B138">
         <v>28.52666667</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>56.03889114223053</v>
+        <v>54.99477401230427</v>
       </c>
       <c r="B139">
         <v>37.13388889</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>60.90876156609777</v>
+        <v>60.89032725553189</v>
       </c>
       <c r="B140">
         <v>38.25194444</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>54.10129882349268</v>
+        <v>53.15795924083442</v>
       </c>
       <c r="B141">
         <v>40.98944444</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>62.81042834704266</v>
+        <v>62.93626647173663</v>
       </c>
       <c r="B142">
         <v>41.98611111</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>58.20421183689486</v>
+        <v>58.71886583197262</v>
       </c>
       <c r="B143">
         <v>28.96027778</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>62.53073858414524</v>
+        <v>61.66437017829035</v>
       </c>
       <c r="B144">
         <v>40.16888889</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>61.55063989747829</v>
+        <v>61.22118054885728</v>
       </c>
       <c r="B145">
         <v>42.09972222</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>67.23694595433889</v>
+        <v>67.27729324505482</v>
       </c>
       <c r="B146">
         <v>40.71666667</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>42.65783762619764</v>
+        <v>43.0632499159283</v>
       </c>
       <c r="B147">
         <v>42.57666667</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>46.45149078863857</v>
+        <v>46.68521617030351</v>
       </c>
       <c r="B148">
         <v>42.42555556</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>64.97597797112935</v>
+        <v>65.34492520206894</v>
       </c>
       <c r="B149">
         <v>41.06666667</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>49.94339805423898</v>
+        <v>49.38785868706034</v>
       </c>
       <c r="B150">
         <v>42.17277778</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>60.85442607995149</v>
+        <v>59.82961056898559</v>
       </c>
       <c r="B151">
         <v>38.96583333</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>64.81465652964111</v>
+        <v>64.76237552297158</v>
       </c>
       <c r="B152">
         <v>39.56166667</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>63.44914499514136</v>
+        <v>62.97382428035421</v>
       </c>
       <c r="B153">
         <v>39.33333333</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>71.98656920987258</v>
+        <v>71.7745531361393</v>
       </c>
       <c r="B154">
         <v>39.35333333</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>62.25261186777554</v>
+        <v>62.06466232376923</v>
       </c>
       <c r="B155">
         <v>39.72972222</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>62.86319238583</v>
+        <v>62.98295524743921</v>
       </c>
       <c r="B156">
         <v>40.64083333</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>63.24458542986529</v>
+        <v>63.28252230738814</v>
       </c>
       <c r="B157">
         <v>40.86722222</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>64.55790060793073</v>
+        <v>64.82522484121054</v>
       </c>
       <c r="B158">
         <v>41.09361111</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>66.07752239281614</v>
+        <v>65.37178966056686</v>
       </c>
       <c r="B159">
         <v>41.53805556</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>62.45135142495349</v>
+        <v>61.74570930934156</v>
       </c>
       <c r="B160">
         <v>41.65361111</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>63.649996403702</v>
+        <v>63.3036329741594</v>
       </c>
       <c r="B161">
         <v>42.37222222</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>51.24914475463143</v>
+        <v>50.81358995658054</v>
       </c>
       <c r="B162">
         <v>41.05</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>65.89326962452027</v>
+        <v>65.99617344686706</v>
       </c>
       <c r="B163">
         <v>40.94527778</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>68.37534019031081</v>
+        <v>67.7462621043841</v>
       </c>
       <c r="B164">
         <v>40.95027778</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>70.14039212692798</v>
+        <v>69.3948621311485</v>
       </c>
       <c r="B165">
         <v>39.61194444</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>69.92510532287957</v>
+        <v>69.60890745279957</v>
       </c>
       <c r="B166">
         <v>39.76055556</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>68.34180289237153</v>
+        <v>68.01575987373275</v>
       </c>
       <c r="B167">
         <v>39.46972222</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>52.57894139422848</v>
+        <v>53.34263563690011</v>
       </c>
       <c r="B168">
         <v>42.29111111</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60.02846682632681</v>
+        <v>59.97736612865288</v>
       </c>
       <c r="B169">
         <v>39.51444444</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>56.57111368700622</v>
+        <v>56.96828951859727</v>
       </c>
       <c r="B170">
         <v>42.87638889</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>53.64670611876439</v>
+        <v>53.72273106251976</v>
       </c>
       <c r="B171">
         <v>42.90944444</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>53.17797907102836</v>
+        <v>52.23572050265571</v>
       </c>
       <c r="B172">
         <v>42.39027778</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>66.82953195098131</v>
+        <v>67.15136132819924</v>
       </c>
       <c r="B173">
         <v>37.88</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>49.06460906690246</v>
+        <v>48.83803285668787</v>
       </c>
       <c r="B174">
         <v>29.09666667</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>62.08310922139678</v>
+        <v>61.34568393227877</v>
       </c>
       <c r="B175">
         <v>29.14527778</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>64.33481762817829</v>
+        <v>64.61459287428467</v>
       </c>
       <c r="B176">
         <v>40.62083333</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>67.31954476534386</v>
+        <v>66.96863075333027</v>
       </c>
       <c r="B177">
         <v>40.10888889</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>61.04745642164166</v>
+        <v>60.85424170557368</v>
       </c>
       <c r="B178">
         <v>40.1425</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>68.94967286193494</v>
+        <v>69.3859344541422</v>
       </c>
       <c r="B179">
         <v>39.26888889</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>51.0231056800008</v>
+        <v>49.87541640582383</v>
       </c>
       <c r="B180">
         <v>37.08333333</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>67.83608542363697</v>
+        <v>67.38712597644783</v>
       </c>
       <c r="B181">
         <v>38.97388889</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>62.52464022291043</v>
+        <v>63.15471202287846</v>
       </c>
       <c r="B182">
         <v>42.40694444</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>28.25107584254131</v>
+        <v>26.5375603974419</v>
       </c>
       <c r="B183">
         <v>41.66666667</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>43.5128819548517</v>
+        <v>44.17720042795533</v>
       </c>
       <c r="B184">
         <v>39.74194444</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>22.40003726874561</v>
+        <v>22.55632083007248</v>
       </c>
       <c r="B185">
         <v>33.367793</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>31.8721901548806</v>
+        <v>30.56750435806032</v>
       </c>
       <c r="B186">
         <v>33.76062</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>42.78574318009021</v>
+        <v>42.52323093303567</v>
       </c>
       <c r="B187">
         <v>38.217972</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>38.66623700244502</v>
+        <v>38.56051951099307</v>
       </c>
       <c r="B188">
         <v>33.544635</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>25.27724814230086</v>
+        <v>24.3718594069385</v>
       </c>
       <c r="B189">
         <v>9.583299999999999</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>48.51892211602423</v>
+        <v>48.25633977343112</v>
       </c>
       <c r="B190">
         <v>39.63333333</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>39.28703351778787</v>
+        <v>38.23473359734002</v>
       </c>
       <c r="B191">
         <v>40.7</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>49.0116735716065</v>
+        <v>49.3225607813818</v>
       </c>
       <c r="B192">
         <v>48.02863</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>50.69514476423282</v>
+        <v>50.5432321149862</v>
       </c>
       <c r="B193">
         <v>48.33333333</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>44.71495949433444</v>
+        <v>44.13975574004334</v>
       </c>
       <c r="B194">
         <v>-36.6</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>35.25994049353585</v>
+        <v>34.56226896622329</v>
       </c>
       <c r="B195">
         <v>-37.88333333</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>56.84602127393963</v>
+        <v>57.06470887887248</v>
       </c>
       <c r="B196">
         <v>-33.45</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>45.64371323203539</v>
+        <v>46.49621603265485</v>
       </c>
       <c r="B197">
         <v>36.39</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>33.8889981211845</v>
+        <v>33.63962024241506</v>
       </c>
       <c r="B198">
         <v>14.56666667</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>33.97093270181687</v>
+        <v>33.4500238394964</v>
       </c>
       <c r="B199">
         <v>17.46666667</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>41.78360277250826</v>
+        <v>41.27640336287784</v>
       </c>
       <c r="B200">
         <v>42</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>41.28153438939673</v>
+        <v>39.92699693103344</v>
       </c>
       <c r="B201">
         <v>38.2494</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>44.03242274031433</v>
+        <v>45.44623220083009</v>
       </c>
       <c r="B202">
         <v>37.21666667</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>32.12921871776106</v>
+        <v>30.65653484220112</v>
       </c>
       <c r="B203">
         <v>40.91666667</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>38.73292628256976</v>
+        <v>37.96440823824555</v>
       </c>
       <c r="B204">
         <v>37.30611111</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>41.14739816396197</v>
+        <v>41.65288254208745</v>
       </c>
       <c r="B205">
         <v>39.4</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>38.77385970953715</v>
+        <v>39.36590879430596</v>
       </c>
       <c r="B206">
         <v>41.81194444</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>50.03474907475081</v>
+        <v>50.320134736903</v>
       </c>
       <c r="B207">
         <v>11.5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>39.57831191930662</v>
+        <v>41.3370840152468</v>
       </c>
       <c r="B208">
         <v>41.54361111</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60.67464597376275</v>
+        <v>61.15527729927913</v>
       </c>
       <c r="B209">
         <v>31.75</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>27.22225355063911</v>
+        <v>27.1324476396281</v>
       </c>
       <c r="B210">
         <v>44.22361111</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>49.06323813143996</v>
+        <v>49.10742008834086</v>
       </c>
       <c r="B211">
         <v>31.13333333</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>36.49693099377971</v>
+        <v>36.77844281736435</v>
       </c>
       <c r="B212">
         <v>36.7</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>30.80145263075863</v>
+        <v>29.78143446086693</v>
       </c>
       <c r="B213">
         <v>29.145027</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>53.61028612612595</v>
+        <v>51.82544414086259</v>
       </c>
       <c r="B214">
         <v>30.06666667</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>40.22046570314498</v>
+        <v>39.1465743963773</v>
       </c>
       <c r="B215">
         <v>32.33333333</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>24.25781594729429</v>
+        <v>24.7987860869539</v>
       </c>
       <c r="B216">
         <v>34.6175</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>33.94450740904488</v>
+        <v>33.71400551705628</v>
       </c>
       <c r="B217">
         <v>35.28333333</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>47.53608514346917</v>
+        <v>46.85292034190813</v>
       </c>
       <c r="B218">
         <v>32.608304</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>44.94610013208104</v>
+        <v>45.07531997166897</v>
       </c>
       <c r="B219">
         <v>46.905304</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>44.98961965633887</v>
+        <v>45.18420321020425</v>
       </c>
       <c r="B220">
         <v>19.51666667</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>43.94165054628397</v>
+        <v>44.14532760721833</v>
       </c>
       <c r="B221">
         <v>-28.63333333</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>36.05359118506195</v>
+        <v>34.72574020406857</v>
       </c>
       <c r="B222">
         <v>28</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>33.02982509345065</v>
+        <v>34.68683597042498</v>
       </c>
       <c r="B223">
         <v>25.18333333</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>13.99124181521432</v>
+        <v>12.68784142848394</v>
       </c>
       <c r="B224">
         <v>28.05</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>23.17472687646782</v>
+        <v>23.56725465281995</v>
       </c>
       <c r="B225">
         <v>28.98333333</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>25.62915346755366</v>
+        <v>27.20814013752593</v>
       </c>
       <c r="B226">
         <v>26.51694444</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>23.62639299695651</v>
+        <v>25.10975039365412</v>
       </c>
       <c r="B227">
         <v>35.18333333</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>62.1395473009045</v>
+        <v>62.68455287457889</v>
       </c>
       <c r="B228">
         <v>42.33333333</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>38.70270076731565</v>
+        <v>37.34280754260642</v>
       </c>
       <c r="B229">
         <v>40.59194444</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>41.07527173949136</v>
+        <v>40.25924931146576</v>
       </c>
       <c r="B230">
         <v>31.81666667</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>50.61254773369689</v>
+        <v>50.88773334917683</v>
       </c>
       <c r="B231">
         <v>32.994619</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>28.37278542742087</v>
+        <v>30.68912493268888</v>
       </c>
       <c r="B232">
         <v>37.62</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>28.59324334734136</v>
+        <v>28.25833655568775</v>
       </c>
       <c r="B233">
         <v>36.3</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>42.11643721383393</v>
+        <v>42.31197614671994</v>
       </c>
       <c r="B234">
         <v>43.91666667</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>33.95044708206955</v>
+        <v>32.28120219195025</v>
       </c>
       <c r="B235">
         <v>43.35694444</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>31.80750669078436</v>
+        <v>30.98306377104175</v>
       </c>
       <c r="B236">
         <v>44.08333333</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>36.20049056115913</v>
+        <v>35.49048775335218</v>
       </c>
       <c r="B237">
         <v>49.98333333</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>49.03102918081797</v>
+        <v>48.69631217317922</v>
       </c>
       <c r="B238">
         <v>37.079643</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>45.73200905415241</v>
+        <v>45.9571692137409</v>
       </c>
       <c r="B239">
         <v>37.823196</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>50.42553579652101</v>
+        <v>50.43857623288194</v>
       </c>
       <c r="B240">
         <v>37.901623</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>34.53024089780231</v>
+        <v>35.33333333333336</v>
       </c>
       <c r="B241">
         <v>37.44</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>42.88627790674084</v>
+        <v>43.50381758764111</v>
       </c>
       <c r="B242">
         <v>37.41666667</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>33.51720308287695</v>
+        <v>34.48429304853529</v>
       </c>
       <c r="B243">
         <v>40.322625</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>36.63121776891909</v>
+        <v>38.03073944227025</v>
       </c>
       <c r="B244">
         <v>36.33305556</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>36.8542065867428</v>
+        <v>37.19652115616167</v>
       </c>
       <c r="B245">
         <v>38.38333333</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>44.02404027804755</v>
+        <v>46.47727398671904</v>
       </c>
       <c r="B246">
         <v>37.56666667</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>33.09473287243513</v>
+        <v>32.89063394512198</v>
       </c>
       <c r="B247">
         <v>39.53333333</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>33.29901968434856</v>
+        <v>31.73795436285872</v>
       </c>
       <c r="B248">
         <v>39.46666667</v>

--- a/Futuro/results/Roya_Presente_avg_RF.xlsx
+++ b/Futuro/results/Roya_Presente_avg_RF.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>66.17311944972897</v>
+        <v>66.31097675087405</v>
       </c>
       <c r="B2">
         <v>37.49194444</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54.41248733763034</v>
+        <v>55.19360311946143</v>
       </c>
       <c r="B3">
         <v>37.78694444</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>54.7944543929291</v>
+        <v>55.18273840013926</v>
       </c>
       <c r="B4">
         <v>28.79722222</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>52.20588514849629</v>
+        <v>51.9820189363309</v>
       </c>
       <c r="B5">
         <v>37.76888889</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>59.58598530936568</v>
+        <v>60.65790797299137</v>
       </c>
       <c r="B6">
         <v>42.22166667</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>50.06497815331969</v>
+        <v>49.2964764320383</v>
       </c>
       <c r="B7">
         <v>42.4925</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56.27508271901678</v>
+        <v>55.20186983326512</v>
       </c>
       <c r="B8">
         <v>39.77111111</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>65.52322145401462</v>
+        <v>65.68357105936849</v>
       </c>
       <c r="B9">
         <v>41.33166667</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>59.14687641747313</v>
+        <v>59.16395672175182</v>
       </c>
       <c r="B10">
         <v>42.13388889</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>60.78996745502914</v>
+        <v>60.92625275780326</v>
       </c>
       <c r="B11">
         <v>42.21333333</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>68.32841455453162</v>
+        <v>67.34873152692884</v>
       </c>
       <c r="B12">
         <v>39.92333333</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>59.59005057052018</v>
+        <v>59.2395810455202</v>
       </c>
       <c r="B13">
         <v>38.11027778</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>65.00420836623238</v>
+        <v>64.87629826471041</v>
       </c>
       <c r="B14">
         <v>40.86972222</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>70.57610022976785</v>
+        <v>70.06291606833442</v>
       </c>
       <c r="B15">
         <v>40.92638889</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>49.33682101991425</v>
+        <v>49.69428619373535</v>
       </c>
       <c r="B16">
         <v>42.80833333</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55.81901295776525</v>
+        <v>55.66893217366042</v>
       </c>
       <c r="B17">
         <v>40.51166667</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>68.28489096665064</v>
+        <v>67.66637650818558</v>
       </c>
       <c r="B18">
         <v>40.21138889</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>59.86217764489496</v>
+        <v>60.16079966347034</v>
       </c>
       <c r="B19">
         <v>40.14277778</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>58.25086634222198</v>
+        <v>58.25756167627173</v>
       </c>
       <c r="B20">
         <v>40.03888889</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>66.22661845605003</v>
+        <v>65.68136761045572</v>
       </c>
       <c r="B21">
         <v>39.82416667</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>71.76467753986074</v>
+        <v>72.07310344319396</v>
       </c>
       <c r="B22">
         <v>39.525</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>68.24498121620593</v>
+        <v>68.3384983420794</v>
       </c>
       <c r="B23">
         <v>39.50027778</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>66.17019279364881</v>
+        <v>66.22095295766819</v>
       </c>
       <c r="B24">
         <v>39.36666667</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>72.18856992134508</v>
+        <v>73.46545465683209</v>
       </c>
       <c r="B25">
         <v>39.35722222</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>68.40532993580065</v>
+        <v>68.32490717417839</v>
       </c>
       <c r="B26">
         <v>38.63583333</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>62.4955741514827</v>
+        <v>62.50122877913149</v>
       </c>
       <c r="B27">
         <v>38.62194444</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>66.97292211402105</v>
+        <v>67.26951429474661</v>
       </c>
       <c r="B28">
         <v>38.75194444</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>65.89056869055511</v>
+        <v>65.87521423930636</v>
       </c>
       <c r="B29">
         <v>38.72222222</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>65.3918223591586</v>
+        <v>65.72986345367964</v>
       </c>
       <c r="B30">
         <v>38.96333333</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>65.5594966955221</v>
+        <v>65.61215648802927</v>
       </c>
       <c r="B31">
         <v>38.88527778</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>66.57489372468694</v>
+        <v>66.95843508942642</v>
       </c>
       <c r="B32">
         <v>39.28833333</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>65.72460079918491</v>
+        <v>65.62367012419065</v>
       </c>
       <c r="B33">
         <v>39.26666667</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>61.21691288732644</v>
+        <v>61.40644897388015</v>
       </c>
       <c r="B34">
         <v>39.25666667</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>62.57955952977407</v>
+        <v>62.44190946482496</v>
       </c>
       <c r="B35">
         <v>39.115</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>63.60479052084128</v>
+        <v>62.99010121907644</v>
       </c>
       <c r="B36">
         <v>39.32472222</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>82.13217997429213</v>
+        <v>81.97544474768247</v>
       </c>
       <c r="B37">
         <v>39.33333333</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>66.46593222639649</v>
+        <v>66.91656489419026</v>
       </c>
       <c r="B38">
         <v>40.90361111</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>57.54223359789795</v>
+        <v>58.7668627162225</v>
       </c>
       <c r="B39">
         <v>40.95388889</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>66.63473681695598</v>
+        <v>66.79755129006219</v>
       </c>
       <c r="B40">
         <v>40.86444444</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>53.38191642831752</v>
+        <v>53.40183685231485</v>
       </c>
       <c r="B41">
         <v>43.15222222</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>61.28808285487159</v>
+        <v>61.49443736517541</v>
       </c>
       <c r="B42">
         <v>41.82083333</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>54.43155999098828</v>
+        <v>54.29060682990338</v>
       </c>
       <c r="B43">
         <v>42.53472222</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>59.7644630011454</v>
+        <v>60.39539667410499</v>
       </c>
       <c r="B44">
         <v>42.33888889</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>59.77257695134498</v>
+        <v>59.43199087129017</v>
       </c>
       <c r="B45">
         <v>42.275</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>57.09784264443328</v>
+        <v>57.76583020476615</v>
       </c>
       <c r="B46">
         <v>41.37472222</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>51.70189218639357</v>
+        <v>53.84389341883767</v>
       </c>
       <c r="B47">
         <v>42.07833333</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>57.5489225112031</v>
+        <v>57.75332389453956</v>
       </c>
       <c r="B48">
         <v>42.33</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>59.51129697790091</v>
+        <v>59.17125238805004</v>
       </c>
       <c r="B49">
         <v>42.40944444</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>59.85920231455829</v>
+        <v>59.68481376971233</v>
       </c>
       <c r="B50">
         <v>41.04388889</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>66.18575007684456</v>
+        <v>66.2257324820775</v>
       </c>
       <c r="B51">
         <v>38.99722222</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>52.69957370882072</v>
+        <v>53.20849938493336</v>
       </c>
       <c r="B52">
         <v>42.82777778</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>57.28069686974229</v>
+        <v>56.91083693433445</v>
       </c>
       <c r="B53">
         <v>42.57166667</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>68.23294388560498</v>
+        <v>68.42662100829243</v>
       </c>
       <c r="B54">
         <v>42.275</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>47.48848973918464</v>
+        <v>48.02600245041107</v>
       </c>
       <c r="B55">
         <v>42.95138889</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>53.82731684646755</v>
+        <v>53.42632986675507</v>
       </c>
       <c r="B56">
         <v>42.98472222</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>44.8699410242841</v>
+        <v>44.28805299452947</v>
       </c>
       <c r="B57">
         <v>42.95</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>53.431853343337</v>
+        <v>52.7473076720197</v>
       </c>
       <c r="B58">
         <v>42.89305556</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>50.64689773017834</v>
+        <v>51.03384673360549</v>
       </c>
       <c r="B59">
         <v>42.95277778</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>52.14940640089708</v>
+        <v>52.04837929475309</v>
       </c>
       <c r="B60">
         <v>42.88611111</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>51.77511938550034</v>
+        <v>51.52005272882363</v>
       </c>
       <c r="B61">
         <v>42.97333333</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>57.09166015314201</v>
+        <v>57.3794894238855</v>
       </c>
       <c r="B62">
         <v>43.00277778</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>64.19332907420352</v>
+        <v>64.58227837753752</v>
       </c>
       <c r="B63">
         <v>42.295</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>65.2662104526547</v>
+        <v>66.06219944386503</v>
       </c>
       <c r="B64">
         <v>41.0775</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>68.25499003885018</v>
+        <v>68.77578740767312</v>
       </c>
       <c r="B65">
         <v>41.065</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>76.78083053017605</v>
+        <v>76.41416141120004</v>
       </c>
       <c r="B66">
         <v>41.11527778</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>59.49006407125178</v>
+        <v>59.72459713568074</v>
       </c>
       <c r="B67">
         <v>41.07472222</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>64.55279700443538</v>
+        <v>64.24028381966903</v>
       </c>
       <c r="B68">
         <v>41.70083333</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>61.75994278169562</v>
+        <v>61.37201360979279</v>
       </c>
       <c r="B69">
         <v>42.35694444</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>59.82529941812459</v>
+        <v>60.41060020858271</v>
       </c>
       <c r="B70">
         <v>42.29777778</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>61.48319119227119</v>
+        <v>61.86174988299009</v>
       </c>
       <c r="B71">
         <v>42.35083333</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>54.10632556860178</v>
+        <v>54.3485296957899</v>
       </c>
       <c r="B72">
         <v>40.74527778</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>58.48361495131634</v>
+        <v>59.9731020668144</v>
       </c>
       <c r="B73">
         <v>40.75138889</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>52.01915699028287</v>
+        <v>52.14306292988859</v>
       </c>
       <c r="B74">
         <v>40.58805556</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>52.5640251174454</v>
+        <v>53.50175292761631</v>
       </c>
       <c r="B75">
         <v>40.73611111</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>68.68579284586269</v>
+        <v>69.21397206830437</v>
       </c>
       <c r="B76">
         <v>40.54472222</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>64.85832295195017</v>
+        <v>64.23530786357026</v>
       </c>
       <c r="B77">
         <v>40.53166667</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>67.70401975034255</v>
+        <v>67.26940533944027</v>
       </c>
       <c r="B78">
         <v>39.06861111</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>65.09602868308278</v>
+        <v>65.10439237128625</v>
       </c>
       <c r="B79">
         <v>38.71111111</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>64.21969812250708</v>
+        <v>64.26391195249437</v>
       </c>
       <c r="B80">
         <v>38.98805556</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>68.92719694689008</v>
+        <v>68.22150583586027</v>
       </c>
       <c r="B81">
         <v>39.96138889</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>73.25844752727996</v>
+        <v>72.81219447779023</v>
       </c>
       <c r="B82">
         <v>39.96638889</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>54.26797762253194</v>
+        <v>54.22635755726327</v>
       </c>
       <c r="B83">
         <v>42.60861111</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>57.9203314064811</v>
+        <v>56.4274655018771</v>
       </c>
       <c r="B84">
         <v>42.32166667</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>65.47745045642647</v>
+        <v>65.73764611722829</v>
       </c>
       <c r="B85">
         <v>42.25416667</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>69.76618441155583</v>
+        <v>69.70646624819237</v>
       </c>
       <c r="B86">
         <v>40.32361111</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>66.88665108755939</v>
+        <v>67.79708485058626</v>
       </c>
       <c r="B87">
         <v>41.24305556</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>51.60481340249696</v>
+        <v>52.75596980971429</v>
       </c>
       <c r="B88">
         <v>40.19583333</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>64.28476857995054</v>
+        <v>63.93997604013766</v>
       </c>
       <c r="B89">
         <v>38.70277778</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>64.45630544091154</v>
+        <v>64.9012108522187</v>
       </c>
       <c r="B90">
         <v>39.13666667</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>73.59954560413286</v>
+        <v>73.72458854945711</v>
       </c>
       <c r="B91">
         <v>39.62722222</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>64.6071305500696</v>
+        <v>65.47793472172793</v>
       </c>
       <c r="B92">
         <v>28.60944444</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>61.45959757546751</v>
+        <v>61.52477970403628</v>
       </c>
       <c r="B93">
         <v>28.5325</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>67.72417061893839</v>
+        <v>68.52126934842076</v>
       </c>
       <c r="B94">
         <v>28.39583333</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>65.63462604199098</v>
+        <v>66.4729579594284</v>
       </c>
       <c r="B95">
         <v>41.94305556</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>63.5293880966999</v>
+        <v>63.68873125864019</v>
       </c>
       <c r="B96">
         <v>37.71944444</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>53.37669085933701</v>
+        <v>53.33759911321441</v>
       </c>
       <c r="B97">
         <v>37.3225</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>54.85637596341593</v>
+        <v>56.23133832325779</v>
       </c>
       <c r="B98">
         <v>36.94611111</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>65.69856952582064</v>
+        <v>65.4352094324839</v>
       </c>
       <c r="B99">
         <v>39.20833333</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>75.61792299410666</v>
+        <v>75.79193321667996</v>
       </c>
       <c r="B100">
         <v>39.2725</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>68.60774970750123</v>
+        <v>68.52332909164912</v>
       </c>
       <c r="B101">
         <v>39.81805556</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>50.93952588470567</v>
+        <v>51.48955012102225</v>
       </c>
       <c r="B102">
         <v>42.77416667</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>43.05018370103062</v>
+        <v>43.76346446606395</v>
       </c>
       <c r="B103">
         <v>42.46388889</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>53.47128208207826</v>
+        <v>53.76831348938735</v>
       </c>
       <c r="B104">
         <v>42.96944444</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>58.68866445349997</v>
+        <v>59.42647450806636</v>
       </c>
       <c r="B105">
         <v>28.96666667</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>52.83649778332767</v>
+        <v>53.662646655021</v>
       </c>
       <c r="B106">
         <v>37.17722222</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>52.08700935743637</v>
+        <v>51.88038844313666</v>
       </c>
       <c r="B107">
         <v>42.94305556</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>48.53248811486903</v>
+        <v>49.03276273936159</v>
       </c>
       <c r="B108">
         <v>43.00694444</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>54.902026488971</v>
+        <v>55.19036988522264</v>
       </c>
       <c r="B109">
         <v>42.91666667</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>58.7405193069312</v>
+        <v>58.83583191191306</v>
       </c>
       <c r="B110">
         <v>38.07055556</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>64.9492438959002</v>
+        <v>65.15644434465953</v>
       </c>
       <c r="B111">
         <v>40.00861111</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>43.78831550831071</v>
+        <v>44.00744654491028</v>
       </c>
       <c r="B112">
         <v>37.18277778</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>62.8377471803366</v>
+        <v>62.59125152220327</v>
       </c>
       <c r="B113">
         <v>37.39583333</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>64.04116669781349</v>
+        <v>64.47947767938075</v>
       </c>
       <c r="B114">
         <v>40.88416667</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>65.73208501985188</v>
+        <v>65.57599424037123</v>
       </c>
       <c r="B115">
         <v>40.735</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>63.97183072013978</v>
+        <v>63.44746639387085</v>
       </c>
       <c r="B116">
         <v>40.50305556</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>62.65952650190369</v>
+        <v>62.51270621370602</v>
       </c>
       <c r="B117">
         <v>40.51916667</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>69.36682353958682</v>
+        <v>69.40589068664725</v>
       </c>
       <c r="B118">
         <v>40.29916667</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>58.93582430935341</v>
+        <v>59.45781147641523</v>
       </c>
       <c r="B119">
         <v>40.75833333</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>63.64690952917953</v>
+        <v>63.57192058815148</v>
       </c>
       <c r="B120">
         <v>40.82444444</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>54.09702092714399</v>
+        <v>53.19674559499548</v>
       </c>
       <c r="B121">
         <v>40.745</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>65.50475811010398</v>
+        <v>65.2634900751863</v>
       </c>
       <c r="B122">
         <v>40.93972222</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>67.44819422056854</v>
+        <v>67.4182044458052</v>
       </c>
       <c r="B123">
         <v>40.68333333</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>66.11279221010665</v>
+        <v>66.22602541630154</v>
       </c>
       <c r="B124">
         <v>40.63333333</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>63.93632628310317</v>
+        <v>63.99541690526435</v>
       </c>
       <c r="B125">
         <v>40.68833333</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>67.14617755389227</v>
+        <v>67.01979889339488</v>
       </c>
       <c r="B126">
         <v>41.40805556</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>63.70577503947809</v>
+        <v>64.34555749413362</v>
       </c>
       <c r="B127">
         <v>40.46361111</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>51.82361376718307</v>
+        <v>52.11174407674256</v>
       </c>
       <c r="B128">
         <v>43.13472222</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>66.07618545636214</v>
+        <v>65.97841258106305</v>
       </c>
       <c r="B129">
         <v>38.61388889</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>58.80350120388557</v>
+        <v>57.30271385652745</v>
       </c>
       <c r="B130">
         <v>41.01972222</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>62.65794454593144</v>
+        <v>62.91102313244644</v>
       </c>
       <c r="B131">
         <v>37.67083333</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>36.3797966913407</v>
+        <v>37.00374269388547</v>
       </c>
       <c r="B132">
         <v>39.72222222</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>63.75882993931204</v>
+        <v>64.36128015237843</v>
       </c>
       <c r="B133">
         <v>41.2325</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>49.9471093463715</v>
+        <v>49.37828701692681</v>
       </c>
       <c r="B134">
         <v>37.34388889</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>47.67527757260687</v>
+        <v>47.52631739392311</v>
       </c>
       <c r="B135">
         <v>37.35194444</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>48.20103230801591</v>
+        <v>48.54425946314209</v>
       </c>
       <c r="B136">
         <v>37.57305556</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>52.52203296341293</v>
+        <v>53.11886039258754</v>
       </c>
       <c r="B137">
         <v>28.56666667</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>71.97474635939183</v>
+        <v>71.82807767555377</v>
       </c>
       <c r="B138">
         <v>28.52666667</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>54.99477401230427</v>
+        <v>55.68963953453237</v>
       </c>
       <c r="B139">
         <v>37.13388889</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>60.89032725553189</v>
+        <v>60.81585884308396</v>
       </c>
       <c r="B140">
         <v>38.25194444</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>53.15795924083442</v>
+        <v>53.93431830649766</v>
       </c>
       <c r="B141">
         <v>40.98944444</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>62.93626647173663</v>
+        <v>63.10970419820515</v>
       </c>
       <c r="B142">
         <v>41.98611111</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>58.71886583197262</v>
+        <v>57.03318037650472</v>
       </c>
       <c r="B143">
         <v>28.96027778</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>61.66437017829035</v>
+        <v>61.78614328854987</v>
       </c>
       <c r="B144">
         <v>40.16888889</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>61.22118054885728</v>
+        <v>61.73381346293836</v>
       </c>
       <c r="B145">
         <v>42.09972222</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>67.27729324505482</v>
+        <v>67.38032935088785</v>
       </c>
       <c r="B146">
         <v>40.71666667</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>43.0632499159283</v>
+        <v>43.59231407602744</v>
       </c>
       <c r="B147">
         <v>42.57666667</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>46.68521617030351</v>
+        <v>46.93529375024351</v>
       </c>
       <c r="B148">
         <v>42.42555556</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>65.34492520206894</v>
+        <v>65.40074403786699</v>
       </c>
       <c r="B149">
         <v>41.06666667</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>49.38785868706034</v>
+        <v>49.89332466832802</v>
       </c>
       <c r="B150">
         <v>42.17277778</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>59.82961056898559</v>
+        <v>60.47055589959574</v>
       </c>
       <c r="B151">
         <v>38.96583333</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>64.76237552297158</v>
+        <v>65.06298497064594</v>
       </c>
       <c r="B152">
         <v>39.56166667</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>62.97382428035421</v>
+        <v>63.22649729264369</v>
       </c>
       <c r="B153">
         <v>39.33333333</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>71.7745531361393</v>
+        <v>71.58226573046664</v>
       </c>
       <c r="B154">
         <v>39.35333333</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>62.06466232376923</v>
+        <v>62.57717966351285</v>
       </c>
       <c r="B155">
         <v>39.72972222</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>62.98295524743921</v>
+        <v>62.67128554436015</v>
       </c>
       <c r="B156">
         <v>40.64083333</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>63.28252230738814</v>
+        <v>63.46140435499377</v>
       </c>
       <c r="B157">
         <v>40.86722222</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>64.82522484121054</v>
+        <v>65.09905001553159</v>
       </c>
       <c r="B158">
         <v>41.09361111</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>65.37178966056686</v>
+        <v>65.2988863235588</v>
       </c>
       <c r="B159">
         <v>41.53805556</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>61.74570930934156</v>
+        <v>62.52420904154874</v>
       </c>
       <c r="B160">
         <v>41.65361111</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>63.3036329741594</v>
+        <v>63.59304986716889</v>
       </c>
       <c r="B161">
         <v>42.37222222</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>50.81358995658054</v>
+        <v>51.2000117625011</v>
       </c>
       <c r="B162">
         <v>41.05</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>65.99617344686706</v>
+        <v>65.67193133956876</v>
       </c>
       <c r="B163">
         <v>40.94527778</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>67.7462621043841</v>
+        <v>68.35025588339332</v>
       </c>
       <c r="B164">
         <v>40.95027778</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>69.3948621311485</v>
+        <v>69.9359568190074</v>
       </c>
       <c r="B165">
         <v>39.61194444</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>69.60890745279957</v>
+        <v>70.07444273406627</v>
       </c>
       <c r="B166">
         <v>39.76055556</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>68.01575987373275</v>
+        <v>68.12213936893519</v>
       </c>
       <c r="B167">
         <v>39.46972222</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>53.34263563690011</v>
+        <v>53.24545705232946</v>
       </c>
       <c r="B168">
         <v>42.29111111</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>59.97736612865288</v>
+        <v>60.45141575921436</v>
       </c>
       <c r="B169">
         <v>39.51444444</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>56.96828951859727</v>
+        <v>56.42510671568223</v>
       </c>
       <c r="B170">
         <v>42.87638889</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>53.72273106251976</v>
+        <v>53.95013694882028</v>
       </c>
       <c r="B171">
         <v>42.90944444</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>52.23572050265571</v>
+        <v>52.65792370018744</v>
       </c>
       <c r="B172">
         <v>42.39027778</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>67.15136132819924</v>
+        <v>67.62816541764168</v>
       </c>
       <c r="B173">
         <v>37.88</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>48.83803285668787</v>
+        <v>49.19222747952651</v>
       </c>
       <c r="B174">
         <v>29.09666667</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>61.34568393227877</v>
+        <v>60.88731424996053</v>
       </c>
       <c r="B175">
         <v>29.14527778</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>64.61459287428467</v>
+        <v>64.57422801395438</v>
       </c>
       <c r="B176">
         <v>40.62083333</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>66.96863075333027</v>
+        <v>67.05866468316627</v>
       </c>
       <c r="B177">
         <v>40.10888889</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>60.85424170557368</v>
+        <v>61.03254176013317</v>
       </c>
       <c r="B178">
         <v>40.1425</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>69.3859344541422</v>
+        <v>69.05928731183455</v>
       </c>
       <c r="B179">
         <v>39.26888889</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>49.87541640582383</v>
+        <v>51.40028771464888</v>
       </c>
       <c r="B180">
         <v>37.08333333</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>67.38712597644783</v>
+        <v>67.55926699302465</v>
       </c>
       <c r="B181">
         <v>38.97388889</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>63.15471202287846</v>
+        <v>62.69895882318633</v>
       </c>
       <c r="B182">
         <v>42.40694444</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>26.5375603974419</v>
+        <v>26.62883926085404</v>
       </c>
       <c r="B183">
         <v>41.66666667</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>44.17720042795533</v>
+        <v>44.82768046812342</v>
       </c>
       <c r="B184">
         <v>39.74194444</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>22.55632083007248</v>
+        <v>22.47903762755814</v>
       </c>
       <c r="B185">
         <v>33.367793</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>30.56750435806032</v>
+        <v>31.24400047853175</v>
       </c>
       <c r="B186">
         <v>33.76062</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>42.52323093303567</v>
+        <v>42.27850390354098</v>
       </c>
       <c r="B187">
         <v>38.217972</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>38.56051951099307</v>
+        <v>39.73115277009431</v>
       </c>
       <c r="B188">
         <v>33.544635</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>24.3718594069385</v>
+        <v>24.69279731787185</v>
       </c>
       <c r="B189">
         <v>9.583299999999999</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>48.25633977343112</v>
+        <v>48.21871754148921</v>
       </c>
       <c r="B190">
         <v>39.63333333</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>38.23473359734002</v>
+        <v>38.68999566967561</v>
       </c>
       <c r="B191">
         <v>40.7</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>49.3225607813818</v>
+        <v>49.53603356677374</v>
       </c>
       <c r="B192">
         <v>48.02863</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>50.5432321149862</v>
+        <v>50.06717263586053</v>
       </c>
       <c r="B193">
         <v>48.33333333</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>44.13975574004334</v>
+        <v>44.47287762213021</v>
       </c>
       <c r="B194">
         <v>-36.6</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>34.56226896622329</v>
+        <v>35.84821225904861</v>
       </c>
       <c r="B195">
         <v>-37.88333333</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>57.06470887887248</v>
+        <v>56.66391563642918</v>
       </c>
       <c r="B196">
         <v>-33.45</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>46.49621603265485</v>
+        <v>47.17132764985524</v>
       </c>
       <c r="B197">
         <v>36.39</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>33.63962024241506</v>
+        <v>32.73836538055673</v>
       </c>
       <c r="B198">
         <v>14.56666667</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>33.4500238394964</v>
+        <v>34.34699459935413</v>
       </c>
       <c r="B199">
         <v>17.46666667</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>41.27640336287784</v>
+        <v>41.7666108273671</v>
       </c>
       <c r="B200">
         <v>42</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>39.92699693103344</v>
+        <v>41.38484030993936</v>
       </c>
       <c r="B201">
         <v>38.2494</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>45.44623220083009</v>
+        <v>44.62511043144299</v>
       </c>
       <c r="B202">
         <v>37.21666667</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>30.65653484220112</v>
+        <v>30.48877304517944</v>
       </c>
       <c r="B203">
         <v>40.91666667</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>37.96440823824555</v>
+        <v>38.93495959361624</v>
       </c>
       <c r="B204">
         <v>37.30611111</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>41.65288254208745</v>
+        <v>41.56822457056562</v>
       </c>
       <c r="B205">
         <v>39.4</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>39.36590879430596</v>
+        <v>38.79875976734952</v>
       </c>
       <c r="B206">
         <v>41.81194444</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>50.320134736903</v>
+        <v>48.44938125312436</v>
       </c>
       <c r="B207">
         <v>11.5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>41.3370840152468</v>
+        <v>40.4226179757396</v>
       </c>
       <c r="B208">
         <v>41.54361111</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>61.15527729927913</v>
+        <v>60.86317882090536</v>
       </c>
       <c r="B209">
         <v>31.75</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>27.1324476396281</v>
+        <v>26.33723150271496</v>
       </c>
       <c r="B210">
         <v>44.22361111</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>49.10742008834086</v>
+        <v>47.30875365135761</v>
       </c>
       <c r="B211">
         <v>31.13333333</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>36.77844281736435</v>
+        <v>38.11188138196898</v>
       </c>
       <c r="B212">
         <v>36.7</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>29.78143446086693</v>
+        <v>31.43202159959413</v>
       </c>
       <c r="B213">
         <v>29.145027</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>51.82544414086259</v>
+        <v>52.9733130492241</v>
       </c>
       <c r="B214">
         <v>30.06666667</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>39.1465743963773</v>
+        <v>40.3009656857586</v>
       </c>
       <c r="B215">
         <v>32.33333333</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>24.7987860869539</v>
+        <v>24.8121983783036</v>
       </c>
       <c r="B216">
         <v>34.6175</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>33.71400551705628</v>
+        <v>34.55811327285683</v>
       </c>
       <c r="B217">
         <v>35.28333333</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>46.85292034190813</v>
+        <v>46.29938056521856</v>
       </c>
       <c r="B218">
         <v>32.608304</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>45.07531997166897</v>
+        <v>43.81595128664253</v>
       </c>
       <c r="B219">
         <v>46.905304</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>45.18420321020425</v>
+        <v>46.00374748504326</v>
       </c>
       <c r="B220">
         <v>19.51666667</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>44.14532760721833</v>
+        <v>44.22831615960324</v>
       </c>
       <c r="B221">
         <v>-28.63333333</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>34.72574020406857</v>
+        <v>32.6593844916455</v>
       </c>
       <c r="B222">
         <v>28</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>34.68683597042498</v>
+        <v>35.00303030303029</v>
       </c>
       <c r="B223">
         <v>25.18333333</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>12.68784142848394</v>
+        <v>13.58794879997815</v>
       </c>
       <c r="B224">
         <v>28.05</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>23.56725465281995</v>
+        <v>24.42588862278506</v>
       </c>
       <c r="B225">
         <v>28.98333333</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>27.20814013752593</v>
+        <v>26.57325256582613</v>
       </c>
       <c r="B226">
         <v>26.51694444</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>25.10975039365412</v>
+        <v>23.37330486660018</v>
       </c>
       <c r="B227">
         <v>35.18333333</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>62.68455287457889</v>
+        <v>63.00656039421451</v>
       </c>
       <c r="B228">
         <v>42.33333333</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>37.34280754260642</v>
+        <v>38.20499888296353</v>
       </c>
       <c r="B229">
         <v>40.59194444</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>40.25924931146576</v>
+        <v>39.41763220979269</v>
       </c>
       <c r="B230">
         <v>31.81666667</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>50.88773334917683</v>
+        <v>51.85248787642637</v>
       </c>
       <c r="B231">
         <v>32.994619</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>30.68912493268888</v>
+        <v>29.09760873210816</v>
       </c>
       <c r="B232">
         <v>37.62</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>28.25833655568775</v>
+        <v>26.55101060588385</v>
       </c>
       <c r="B233">
         <v>36.3</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>42.31197614671994</v>
+        <v>42.2142044040198</v>
       </c>
       <c r="B234">
         <v>43.91666667</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>32.28120219195025</v>
+        <v>31.65669313013925</v>
       </c>
       <c r="B235">
         <v>43.35694444</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>30.98306377104175</v>
+        <v>30.39957408148229</v>
       </c>
       <c r="B236">
         <v>44.08333333</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>35.49048775335218</v>
+        <v>35.51867694521265</v>
       </c>
       <c r="B237">
         <v>49.98333333</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>48.69631217317922</v>
+        <v>48.75483603818873</v>
       </c>
       <c r="B238">
         <v>37.079643</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>45.9571692137409</v>
+        <v>45.63180616376325</v>
       </c>
       <c r="B239">
         <v>37.823196</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>50.43857623288194</v>
+        <v>51.24199387904596</v>
       </c>
       <c r="B240">
         <v>37.901623</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>35.33333333333336</v>
+        <v>34.9405052307107</v>
       </c>
       <c r="B241">
         <v>37.44</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>43.50381758764111</v>
+        <v>42.58645730069102</v>
       </c>
       <c r="B242">
         <v>37.41666667</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>34.48429304853529</v>
+        <v>34.51767564538304</v>
       </c>
       <c r="B243">
         <v>40.322625</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>38.03073944227025</v>
+        <v>37.38398028981317</v>
       </c>
       <c r="B244">
         <v>36.33305556</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>37.19652115616167</v>
+        <v>38.1386316540851</v>
       </c>
       <c r="B245">
         <v>38.38333333</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>46.47727398671904</v>
+        <v>45.503600397658</v>
       </c>
       <c r="B246">
         <v>37.56666667</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>32.89063394512198</v>
+        <v>33.5618989511898</v>
       </c>
       <c r="B247">
         <v>39.53333333</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>31.73795436285872</v>
+        <v>31.84831958071328</v>
       </c>
       <c r="B248">
         <v>39.46666667</v>

--- a/Futuro/results/Roya_Presente_avg_RF.xlsx
+++ b/Futuro/results/Roya_Presente_avg_RF.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>66.31097675087405</v>
+        <v>66.29650291213792</v>
       </c>
       <c r="B2">
         <v>37.49194444</v>
@@ -419,7 +419,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>55.19360311946143</v>
+        <v>54.61106454906223</v>
       </c>
       <c r="B3">
         <v>37.78694444</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>55.18273840013926</v>
+        <v>55.03416857949494</v>
       </c>
       <c r="B4">
         <v>28.79722222</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>51.9820189363309</v>
+        <v>52.26560465323404</v>
       </c>
       <c r="B5">
         <v>37.76888889</v>
@@ -461,7 +461,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>60.65790797299137</v>
+        <v>59.22484347420985</v>
       </c>
       <c r="B6">
         <v>42.22166667</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>49.2964764320383</v>
+        <v>50.06396832831804</v>
       </c>
       <c r="B7">
         <v>42.4925</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>55.20186983326512</v>
+        <v>56.46115100930557</v>
       </c>
       <c r="B8">
         <v>39.77111111</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>65.68357105936849</v>
+        <v>65.36012154135807</v>
       </c>
       <c r="B9">
         <v>41.33166667</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>59.16395672175182</v>
+        <v>59.07531022531064</v>
       </c>
       <c r="B10">
         <v>42.13388889</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>60.92625275780326</v>
+        <v>60.82963040614888</v>
       </c>
       <c r="B11">
         <v>42.21333333</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>67.34873152692884</v>
+        <v>68.11003094569084</v>
       </c>
       <c r="B12">
         <v>39.92333333</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>59.2395810455202</v>
+        <v>58.85491579006128</v>
       </c>
       <c r="B13">
         <v>38.11027778</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>64.87629826471041</v>
+        <v>64.96065944152548</v>
       </c>
       <c r="B14">
         <v>40.86972222</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>70.06291606833442</v>
+        <v>69.85874607720891</v>
       </c>
       <c r="B15">
         <v>40.92638889</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>49.69428619373535</v>
+        <v>49.41758298002691</v>
       </c>
       <c r="B16">
         <v>42.80833333</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>55.66893217366042</v>
+        <v>55.30789807160473</v>
       </c>
       <c r="B17">
         <v>40.51166667</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>67.66637650818558</v>
+        <v>67.75226581178313</v>
       </c>
       <c r="B18">
         <v>40.21138889</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>60.16079966347034</v>
+        <v>59.46011767306641</v>
       </c>
       <c r="B19">
         <v>40.14277778</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>58.25756167627173</v>
+        <v>58.35992823366647</v>
       </c>
       <c r="B20">
         <v>40.03888889</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>65.68136761045572</v>
+        <v>65.51467522725416</v>
       </c>
       <c r="B21">
         <v>39.82416667</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>72.07310344319396</v>
+        <v>73.24628301798305</v>
       </c>
       <c r="B22">
         <v>39.525</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>68.3384983420794</v>
+        <v>68.61296352952093</v>
       </c>
       <c r="B23">
         <v>39.50027778</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>66.22095295766819</v>
+        <v>66.28784495895169</v>
       </c>
       <c r="B24">
         <v>39.36666667</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>73.46545465683209</v>
+        <v>73.64148122904575</v>
       </c>
       <c r="B25">
         <v>39.35722222</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>68.32490717417839</v>
+        <v>68.64684915821522</v>
       </c>
       <c r="B26">
         <v>38.63583333</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>62.50122877913149</v>
+        <v>62.24759555329859</v>
       </c>
       <c r="B27">
         <v>38.62194444</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>67.26951429474661</v>
+        <v>67.63559229348854</v>
       </c>
       <c r="B28">
         <v>38.75194444</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>65.87521423930636</v>
+        <v>66.15550048210306</v>
       </c>
       <c r="B29">
         <v>38.72222222</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>65.72986345367964</v>
+        <v>65.24761323479859</v>
       </c>
       <c r="B30">
         <v>38.96333333</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>65.61215648802927</v>
+        <v>65.7911211184374</v>
       </c>
       <c r="B31">
         <v>38.88527778</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>66.95843508942642</v>
+        <v>66.84414797615241</v>
       </c>
       <c r="B32">
         <v>39.28833333</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>65.62367012419065</v>
+        <v>65.46689900378453</v>
       </c>
       <c r="B33">
         <v>39.26666667</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>61.40644897388015</v>
+        <v>60.89366802477605</v>
       </c>
       <c r="B34">
         <v>39.25666667</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>62.44190946482496</v>
+        <v>62.28698866010682</v>
       </c>
       <c r="B35">
         <v>39.115</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>62.99010121907644</v>
+        <v>62.93243494059763</v>
       </c>
       <c r="B36">
         <v>39.32472222</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>81.97544474768247</v>
+        <v>82.30304063608341</v>
       </c>
       <c r="B37">
         <v>39.33333333</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>66.91656489419026</v>
+        <v>66.44696078659223</v>
       </c>
       <c r="B38">
         <v>40.90361111</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>58.7668627162225</v>
+        <v>57.65169556921431</v>
       </c>
       <c r="B39">
         <v>40.95388889</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>66.79755129006219</v>
+        <v>66.74654370389673</v>
       </c>
       <c r="B40">
         <v>40.86444444</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>53.40183685231485</v>
+        <v>52.99459460554196</v>
       </c>
       <c r="B41">
         <v>43.15222222</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>61.49443736517541</v>
+        <v>61.3849090583156</v>
       </c>
       <c r="B42">
         <v>41.82083333</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>54.29060682990338</v>
+        <v>54.8514843825958</v>
       </c>
       <c r="B43">
         <v>42.53472222</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>60.39539667410499</v>
+        <v>60.21130205373601</v>
       </c>
       <c r="B44">
         <v>42.33888889</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>59.43199087129017</v>
+        <v>58.85770922445668</v>
       </c>
       <c r="B45">
         <v>42.275</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>57.76583020476615</v>
+        <v>56.76760222762776</v>
       </c>
       <c r="B46">
         <v>41.37472222</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>53.84389341883767</v>
+        <v>54.10933139686827</v>
       </c>
       <c r="B47">
         <v>42.07833333</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>57.75332389453956</v>
+        <v>57.78471260003818</v>
       </c>
       <c r="B48">
         <v>42.33</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>59.17125238805004</v>
+        <v>59.9519733827528</v>
       </c>
       <c r="B49">
         <v>42.40944444</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>59.68481376971233</v>
+        <v>59.76109465730347</v>
       </c>
       <c r="B50">
         <v>41.04388889</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>66.2257324820775</v>
+        <v>66.14494588569396</v>
       </c>
       <c r="B51">
         <v>38.99722222</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>53.20849938493336</v>
+        <v>53.21156107876124</v>
       </c>
       <c r="B52">
         <v>42.82777778</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>56.91083693433445</v>
+        <v>58.14416528422619</v>
       </c>
       <c r="B53">
         <v>42.57166667</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>68.42662100829243</v>
+        <v>68.21350465760153</v>
       </c>
       <c r="B54">
         <v>42.275</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>48.02600245041107</v>
+        <v>47.669219621236</v>
       </c>
       <c r="B55">
         <v>42.95138889</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>53.42632986675507</v>
+        <v>53.01940525885777</v>
       </c>
       <c r="B56">
         <v>42.98472222</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>44.28805299452947</v>
+        <v>45.38726437725527</v>
       </c>
       <c r="B57">
         <v>42.95</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>52.7473076720197</v>
+        <v>52.63241719826301</v>
       </c>
       <c r="B58">
         <v>42.89305556</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>51.03384673360549</v>
+        <v>50.62515476097028</v>
       </c>
       <c r="B59">
         <v>42.95277778</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>52.04837929475309</v>
+        <v>52.14813189411861</v>
       </c>
       <c r="B60">
         <v>42.88611111</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>51.52005272882363</v>
+        <v>52.22225538475616</v>
       </c>
       <c r="B61">
         <v>42.97333333</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>57.3794894238855</v>
+        <v>57.21883424910408</v>
       </c>
       <c r="B62">
         <v>43.00277778</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>64.58227837753752</v>
+        <v>63.49075826170712</v>
       </c>
       <c r="B63">
         <v>42.295</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>66.06219944386503</v>
+        <v>65.06681510196087</v>
       </c>
       <c r="B64">
         <v>41.0775</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>68.77578740767312</v>
+        <v>68.79162293751094</v>
       </c>
       <c r="B65">
         <v>41.065</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>76.41416141120004</v>
+        <v>77.59643302952998</v>
       </c>
       <c r="B66">
         <v>41.11527778</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>59.72459713568074</v>
+        <v>60.31923781472682</v>
       </c>
       <c r="B67">
         <v>41.07472222</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>64.24028381966903</v>
+        <v>64.89389421487823</v>
       </c>
       <c r="B68">
         <v>41.70083333</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>61.37201360979279</v>
+        <v>61.73830194200383</v>
       </c>
       <c r="B69">
         <v>42.35694444</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>60.41060020858271</v>
+        <v>58.86975015167398</v>
       </c>
       <c r="B70">
         <v>42.29777778</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>61.86174988299009</v>
+        <v>61.0368501676857</v>
       </c>
       <c r="B71">
         <v>42.35083333</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>54.3485296957899</v>
+        <v>54.95932363992165</v>
       </c>
       <c r="B72">
         <v>40.74527778</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>59.9731020668144</v>
+        <v>57.9908098887437</v>
       </c>
       <c r="B73">
         <v>40.75138889</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>52.14306292988859</v>
+        <v>51.82353554700309</v>
       </c>
       <c r="B74">
         <v>40.58805556</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53.50175292761631</v>
+        <v>53.13833331668442</v>
       </c>
       <c r="B75">
         <v>40.73611111</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>69.21397206830437</v>
+        <v>68.98318983620126</v>
       </c>
       <c r="B76">
         <v>40.54472222</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>64.23530786357026</v>
+        <v>64.09385278475615</v>
       </c>
       <c r="B77">
         <v>40.53166667</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>67.26940533944027</v>
+        <v>67.16970410506462</v>
       </c>
       <c r="B78">
         <v>39.06861111</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>65.10439237128625</v>
+        <v>64.76011364119269</v>
       </c>
       <c r="B79">
         <v>38.71111111</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>64.26391195249437</v>
+        <v>64.16938853061107</v>
       </c>
       <c r="B80">
         <v>38.98805556</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>68.22150583586027</v>
+        <v>69.7186463266369</v>
       </c>
       <c r="B81">
         <v>39.96138889</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>72.81219447779023</v>
+        <v>73.11333838701438</v>
       </c>
       <c r="B82">
         <v>39.96638889</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>54.22635755726327</v>
+        <v>54.8692369945208</v>
       </c>
       <c r="B83">
         <v>42.60861111</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>56.4274655018771</v>
+        <v>58.51821030810849</v>
       </c>
       <c r="B84">
         <v>42.32166667</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>65.73764611722829</v>
+        <v>65.92461494271433</v>
       </c>
       <c r="B85">
         <v>42.25416667</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>69.70646624819237</v>
+        <v>70.21569536684103</v>
       </c>
       <c r="B86">
         <v>40.32361111</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>67.79708485058626</v>
+        <v>67.63115154478378</v>
       </c>
       <c r="B87">
         <v>41.24305556</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>52.75596980971429</v>
+        <v>52.94845533612254</v>
       </c>
       <c r="B88">
         <v>40.19583333</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>63.93997604013766</v>
+        <v>64.70312981749404</v>
       </c>
       <c r="B89">
         <v>38.70277778</v>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>64.9012108522187</v>
+        <v>65.06887387426697</v>
       </c>
       <c r="B90">
         <v>39.13666667</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>73.72458854945711</v>
+        <v>73.80546304063101</v>
       </c>
       <c r="B91">
         <v>39.62722222</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>65.47793472172793</v>
+        <v>65.27751174079282</v>
       </c>
       <c r="B92">
         <v>28.60944444</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>61.52477970403628</v>
+        <v>60.78688528822253</v>
       </c>
       <c r="B93">
         <v>28.5325</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>68.52126934842076</v>
+        <v>68.39763097256336</v>
       </c>
       <c r="B94">
         <v>28.39583333</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>66.4729579594284</v>
+        <v>65.17098382295795</v>
       </c>
       <c r="B95">
         <v>41.94305556</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>63.68873125864019</v>
+        <v>63.5241873895248</v>
       </c>
       <c r="B96">
         <v>37.71944444</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>53.33759911321441</v>
+        <v>53.29170188774433</v>
       </c>
       <c r="B97">
         <v>37.3225</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>56.23133832325779</v>
+        <v>55.67794501263632</v>
       </c>
       <c r="B98">
         <v>36.94611111</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>65.4352094324839</v>
+        <v>65.37680423008044</v>
       </c>
       <c r="B99">
         <v>39.20833333</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>75.79193321667996</v>
+        <v>74.57310464650962</v>
       </c>
       <c r="B100">
         <v>39.2725</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>68.52332909164912</v>
+        <v>69.19510696163384</v>
       </c>
       <c r="B101">
         <v>39.81805556</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>51.48955012102225</v>
+        <v>50.86230625952772</v>
       </c>
       <c r="B102">
         <v>42.77416667</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>43.76346446606395</v>
+        <v>42.83336127461108</v>
       </c>
       <c r="B103">
         <v>42.46388889</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>53.76831348938735</v>
+        <v>53.31824526717112</v>
       </c>
       <c r="B104">
         <v>42.96944444</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>59.42647450806636</v>
+        <v>59.23057811367576</v>
       </c>
       <c r="B105">
         <v>28.96666667</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>53.662646655021</v>
+        <v>51.69965254298344</v>
       </c>
       <c r="B106">
         <v>37.17722222</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>51.88038844313666</v>
+        <v>51.30870695053354</v>
       </c>
       <c r="B107">
         <v>42.94305556</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>49.03276273936159</v>
+        <v>48.51807156556522</v>
       </c>
       <c r="B108">
         <v>43.00694444</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>55.19036988522264</v>
+        <v>54.82497021702163</v>
       </c>
       <c r="B109">
         <v>42.91666667</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>58.83583191191306</v>
+        <v>58.48800330050489</v>
       </c>
       <c r="B110">
         <v>38.07055556</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>65.15644434465953</v>
+        <v>65.12052650614825</v>
       </c>
       <c r="B111">
         <v>40.00861111</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>44.00744654491028</v>
+        <v>44.6472283612614</v>
       </c>
       <c r="B112">
         <v>37.18277778</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>62.59125152220327</v>
+        <v>63.14503748080701</v>
       </c>
       <c r="B113">
         <v>37.39583333</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>64.47947767938075</v>
+        <v>64.05291372258775</v>
       </c>
       <c r="B114">
         <v>40.88416667</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>65.57599424037123</v>
+        <v>65.74068297953733</v>
       </c>
       <c r="B115">
         <v>40.735</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>63.44746639387085</v>
+        <v>62.83664237204495</v>
       </c>
       <c r="B116">
         <v>40.50305556</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>62.51270621370602</v>
+        <v>62.51768678581457</v>
       </c>
       <c r="B117">
         <v>40.51916667</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>69.40589068664725</v>
+        <v>69.74647159158135</v>
       </c>
       <c r="B118">
         <v>40.29916667</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>59.45781147641523</v>
+        <v>58.92389182672444</v>
       </c>
       <c r="B119">
         <v>40.75833333</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>63.57192058815148</v>
+        <v>63.49364414239425</v>
       </c>
       <c r="B120">
         <v>40.82444444</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>53.19674559499548</v>
+        <v>53.13795146922963</v>
       </c>
       <c r="B121">
         <v>40.745</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>65.2634900751863</v>
+        <v>65.34409408349629</v>
       </c>
       <c r="B122">
         <v>40.93972222</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>67.4182044458052</v>
+        <v>67.72838120846654</v>
       </c>
       <c r="B123">
         <v>40.68333333</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>66.22602541630154</v>
+        <v>65.79493525449492</v>
       </c>
       <c r="B124">
         <v>40.63333333</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>63.99541690526435</v>
+        <v>62.69960229055847</v>
       </c>
       <c r="B125">
         <v>40.68833333</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>67.01979889339488</v>
+        <v>66.88287219321138</v>
       </c>
       <c r="B126">
         <v>41.40805556</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>64.34555749413362</v>
+        <v>64.12747680652052</v>
       </c>
       <c r="B127">
         <v>40.46361111</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>52.11174407674256</v>
+        <v>51.69294335101381</v>
       </c>
       <c r="B128">
         <v>43.13472222</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>65.97841258106305</v>
+        <v>66.42798143267004</v>
       </c>
       <c r="B129">
         <v>38.61388889</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>57.30271385652745</v>
+        <v>57.78423768949473</v>
       </c>
       <c r="B130">
         <v>41.01972222</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>62.91102313244644</v>
+        <v>61.70407047099039</v>
       </c>
       <c r="B131">
         <v>37.67083333</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>37.00374269388547</v>
+        <v>35.8262621917408</v>
       </c>
       <c r="B132">
         <v>39.72222222</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>64.36128015237843</v>
+        <v>64.24711533503198</v>
       </c>
       <c r="B133">
         <v>41.2325</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>49.37828701692681</v>
+        <v>49.16588689449971</v>
       </c>
       <c r="B134">
         <v>37.34388889</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>47.52631739392311</v>
+        <v>47.34424286110701</v>
       </c>
       <c r="B135">
         <v>37.35194444</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>48.54425946314209</v>
+        <v>47.49521909648873</v>
       </c>
       <c r="B136">
         <v>37.57305556</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>53.11886039258754</v>
+        <v>52.47209560537267</v>
       </c>
       <c r="B137">
         <v>28.56666667</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>71.82807767555377</v>
+        <v>72.39177376666856</v>
       </c>
       <c r="B138">
         <v>28.52666667</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>55.68963953453237</v>
+        <v>55.63653495226488</v>
       </c>
       <c r="B139">
         <v>37.13388889</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>60.81585884308396</v>
+        <v>61.13995775028724</v>
       </c>
       <c r="B140">
         <v>38.25194444</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>53.93431830649766</v>
+        <v>53.92373847793108</v>
       </c>
       <c r="B141">
         <v>40.98944444</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>63.10970419820515</v>
+        <v>63.01028044271105</v>
       </c>
       <c r="B142">
         <v>41.98611111</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>57.03318037650472</v>
+        <v>58.17682327338223</v>
       </c>
       <c r="B143">
         <v>28.96027778</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>61.78614328854987</v>
+        <v>62.49261296998165</v>
       </c>
       <c r="B144">
         <v>40.16888889</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>61.73381346293836</v>
+        <v>61.34623321239451</v>
       </c>
       <c r="B145">
         <v>42.09972222</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>67.38032935088785</v>
+        <v>67.75760837034682</v>
       </c>
       <c r="B146">
         <v>40.71666667</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>43.59231407602744</v>
+        <v>43.76996380549576</v>
       </c>
       <c r="B147">
         <v>42.57666667</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>46.93529375024351</v>
+        <v>46.88117517158964</v>
       </c>
       <c r="B148">
         <v>42.42555556</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>65.40074403786699</v>
+        <v>65.33460979425038</v>
       </c>
       <c r="B149">
         <v>41.06666667</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>49.89332466832802</v>
+        <v>49.58346393393378</v>
       </c>
       <c r="B150">
         <v>42.17277778</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>60.47055589959574</v>
+        <v>60.82714860395943</v>
       </c>
       <c r="B151">
         <v>38.96583333</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>65.06298497064594</v>
+        <v>64.47562592177106</v>
       </c>
       <c r="B152">
         <v>39.56166667</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>63.22649729264369</v>
+        <v>62.99158988504341</v>
       </c>
       <c r="B153">
         <v>39.33333333</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>71.58226573046664</v>
+        <v>71.2457712172519</v>
       </c>
       <c r="B154">
         <v>39.35333333</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>62.57717966351285</v>
+        <v>62.4193430389744</v>
       </c>
       <c r="B155">
         <v>39.72972222</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>62.67128554436015</v>
+        <v>62.99589085553701</v>
       </c>
       <c r="B156">
         <v>40.64083333</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>63.46140435499377</v>
+        <v>63.53543749327439</v>
       </c>
       <c r="B157">
         <v>40.86722222</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>65.09905001553159</v>
+        <v>65.06669852289518</v>
       </c>
       <c r="B158">
         <v>41.09361111</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>65.2988863235588</v>
+        <v>66.26525160288006</v>
       </c>
       <c r="B159">
         <v>41.53805556</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>62.52420904154874</v>
+        <v>61.99267817499835</v>
       </c>
       <c r="B160">
         <v>41.65361111</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>63.59304986716889</v>
+        <v>64.37180787270185</v>
       </c>
       <c r="B161">
         <v>42.37222222</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>51.2000117625011</v>
+        <v>51.44066696762252</v>
       </c>
       <c r="B162">
         <v>41.05</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>65.67193133956876</v>
+        <v>65.67796074670767</v>
       </c>
       <c r="B163">
         <v>40.94527778</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>68.35025588339332</v>
+        <v>68.08672398763491</v>
       </c>
       <c r="B164">
         <v>40.95027778</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>69.9359568190074</v>
+        <v>69.06310624212423</v>
       </c>
       <c r="B165">
         <v>39.61194444</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>70.07444273406627</v>
+        <v>69.47126754777894</v>
       </c>
       <c r="B166">
         <v>39.76055556</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>68.12213936893519</v>
+        <v>68.59418766825529</v>
       </c>
       <c r="B167">
         <v>39.46972222</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>53.24545705232946</v>
+        <v>53.19776615752808</v>
       </c>
       <c r="B168">
         <v>42.29111111</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>60.45141575921436</v>
+        <v>60.09674900425464</v>
       </c>
       <c r="B169">
         <v>39.51444444</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>56.42510671568223</v>
+        <v>57.215541671455</v>
       </c>
       <c r="B170">
         <v>42.87638889</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>53.95013694882028</v>
+        <v>54.30671678476285</v>
       </c>
       <c r="B171">
         <v>42.90944444</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>52.65792370018744</v>
+        <v>52.99463226765516</v>
       </c>
       <c r="B172">
         <v>42.39027778</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>67.62816541764168</v>
+        <v>67.74245138304209</v>
       </c>
       <c r="B173">
         <v>37.88</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>49.19222747952651</v>
+        <v>48.61909340577127</v>
       </c>
       <c r="B174">
         <v>29.09666667</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>60.88731424996053</v>
+        <v>61.05470629233193</v>
       </c>
       <c r="B175">
         <v>29.14527778</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>64.57422801395438</v>
+        <v>63.57973784610151</v>
       </c>
       <c r="B176">
         <v>40.62083333</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>67.05866468316627</v>
+        <v>67.28728458069406</v>
       </c>
       <c r="B177">
         <v>40.10888889</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>61.03254176013317</v>
+        <v>61.69019905430989</v>
       </c>
       <c r="B178">
         <v>40.1425</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>69.05928731183455</v>
+        <v>69.3479829389772</v>
       </c>
       <c r="B179">
         <v>39.26888889</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>51.40028771464888</v>
+        <v>50.39362214772231</v>
       </c>
       <c r="B180">
         <v>37.08333333</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>67.55926699302465</v>
+        <v>68.22868215857999</v>
       </c>
       <c r="B181">
         <v>38.97388889</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>62.69895882318633</v>
+        <v>63.09426120600679</v>
       </c>
       <c r="B182">
         <v>42.40694444</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>26.62883926085404</v>
+        <v>27.12446766820196</v>
       </c>
       <c r="B183">
         <v>41.66666667</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>44.82768046812342</v>
+        <v>43.67393262777467</v>
       </c>
       <c r="B184">
         <v>39.74194444</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>22.47903762755814</v>
+        <v>22.74620773309152</v>
       </c>
       <c r="B185">
         <v>33.367793</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>31.24400047853175</v>
+        <v>32.41979187680112</v>
       </c>
       <c r="B186">
         <v>33.76062</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>42.27850390354098</v>
+        <v>42.27530604405158</v>
       </c>
       <c r="B187">
         <v>38.217972</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>39.73115277009431</v>
+        <v>38.66696550284957</v>
       </c>
       <c r="B188">
         <v>33.544635</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>24.69279731787185</v>
+        <v>25.39812110637659</v>
       </c>
       <c r="B189">
         <v>9.583299999999999</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>48.21871754148921</v>
+        <v>47.35812611150234</v>
       </c>
       <c r="B190">
         <v>39.63333333</v>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>38.68999566967561</v>
+        <v>38.71569270529098</v>
       </c>
       <c r="B191">
         <v>40.7</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>49.53603356677374</v>
+        <v>49.97852150297823</v>
       </c>
       <c r="B192">
         <v>48.02863</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>50.06717263586053</v>
+        <v>49.85319692076352</v>
       </c>
       <c r="B193">
         <v>48.33333333</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>44.47287762213021</v>
+        <v>44.60352645455791</v>
       </c>
       <c r="B194">
         <v>-36.6</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>35.84821225904861</v>
+        <v>35.84197102817312</v>
       </c>
       <c r="B195">
         <v>-37.88333333</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>56.66391563642918</v>
+        <v>56.20791091939971</v>
       </c>
       <c r="B196">
         <v>-33.45</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>47.17132764985524</v>
+        <v>46.13465843912634</v>
       </c>
       <c r="B197">
         <v>36.39</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>32.73836538055673</v>
+        <v>32.32055706999851</v>
       </c>
       <c r="B198">
         <v>14.56666667</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>34.34699459935413</v>
+        <v>34.17817502058988</v>
       </c>
       <c r="B199">
         <v>17.46666667</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>41.7666108273671</v>
+        <v>41.15375474792452</v>
       </c>
       <c r="B200">
         <v>42</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>41.38484030993936</v>
+        <v>40.4105919623937</v>
       </c>
       <c r="B201">
         <v>38.2494</v>
@@ -3205,7 +3205,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>44.62511043144299</v>
+        <v>44.18766531269438</v>
       </c>
       <c r="B202">
         <v>37.21666667</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>30.48877304517944</v>
+        <v>31.48014603776015</v>
       </c>
       <c r="B203">
         <v>40.91666667</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>38.93495959361624</v>
+        <v>38.22072031209095</v>
       </c>
       <c r="B204">
         <v>37.30611111</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>41.56822457056562</v>
+        <v>42.6221762761353</v>
       </c>
       <c r="B205">
         <v>39.4</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>38.79875976734952</v>
+        <v>39.41139980305542</v>
       </c>
       <c r="B206">
         <v>41.81194444</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>48.44938125312436</v>
+        <v>49.80916403320651</v>
       </c>
       <c r="B207">
         <v>11.5</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>40.4226179757396</v>
+        <v>39.91129975495186</v>
       </c>
       <c r="B208">
         <v>41.54361111</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>60.86317882090536</v>
+        <v>61.10325423989719</v>
       </c>
       <c r="B209">
         <v>31.75</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>26.33723150271496</v>
+        <v>26.8394118649436</v>
       </c>
       <c r="B210">
         <v>44.22361111</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>47.30875365135761</v>
+        <v>46.48888919524808</v>
       </c>
       <c r="B211">
         <v>31.13333333</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>38.11188138196898</v>
+        <v>36.64061850951596</v>
       </c>
       <c r="B212">
         <v>36.7</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>31.43202159959413</v>
+        <v>29.96782000711203</v>
       </c>
       <c r="B213">
         <v>29.145027</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214">
-        <v>52.9733130492241</v>
+        <v>52.49393152352505</v>
       </c>
       <c r="B214">
         <v>30.06666667</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215">
-        <v>40.3009656857586</v>
+        <v>40.46012373847795</v>
       </c>
       <c r="B215">
         <v>32.33333333</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>24.8121983783036</v>
+        <v>23.25220317967054</v>
       </c>
       <c r="B216">
         <v>34.6175</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217">
-        <v>34.55811327285683</v>
+        <v>34.27628534925523</v>
       </c>
       <c r="B217">
         <v>35.28333333</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218">
-        <v>46.29938056521856</v>
+        <v>47.18946929031767</v>
       </c>
       <c r="B218">
         <v>32.608304</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219">
-        <v>43.81595128664253</v>
+        <v>44.92958325798437</v>
       </c>
       <c r="B219">
         <v>46.905304</v>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220">
-        <v>46.00374748504326</v>
+        <v>46.54476066847463</v>
       </c>
       <c r="B220">
         <v>19.51666667</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221">
-        <v>44.22831615960324</v>
+        <v>44.1971567186534</v>
       </c>
       <c r="B221">
         <v>-28.63333333</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>32.6593844916455</v>
+        <v>35.32819180723365</v>
       </c>
       <c r="B222">
         <v>28</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>35.00303030303029</v>
+        <v>35.7090909090909</v>
       </c>
       <c r="B223">
         <v>25.18333333</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>13.58794879997815</v>
+        <v>13.1012902990202</v>
       </c>
       <c r="B224">
         <v>28.05</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>24.42588862278506</v>
+        <v>24.3878787878788</v>
       </c>
       <c r="B225">
         <v>28.98333333</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>26.57325256582613</v>
+        <v>25.77951332934258</v>
       </c>
       <c r="B226">
         <v>26.51694444</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>23.37330486660018</v>
+        <v>24.16530349605386</v>
       </c>
       <c r="B227">
         <v>35.18333333</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>63.00656039421451</v>
+        <v>61.80363436486807</v>
       </c>
       <c r="B228">
         <v>42.33333333</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>38.20499888296353</v>
+        <v>39.85439352027424</v>
       </c>
       <c r="B229">
         <v>40.59194444</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>39.41763220979269</v>
+        <v>40.03823454063574</v>
       </c>
       <c r="B230">
         <v>31.81666667</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>51.85248787642637</v>
+        <v>51.1502495246651</v>
       </c>
       <c r="B231">
         <v>32.994619</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>29.09760873210816</v>
+        <v>28.44634555686405</v>
       </c>
       <c r="B232">
         <v>37.62</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>26.55101060588385</v>
+        <v>29.06422126432377</v>
       </c>
       <c r="B233">
         <v>36.3</v>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>42.2142044040198</v>
+        <v>42.53700894326243</v>
       </c>
       <c r="B234">
         <v>43.91666667</v>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>31.65669313013925</v>
+        <v>32.34205984431226</v>
       </c>
       <c r="B235">
         <v>43.35694444</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>30.39957408148229</v>
+        <v>31.46336431519813</v>
       </c>
       <c r="B236">
         <v>44.08333333</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>35.51867694521265</v>
+        <v>35.35142285755772</v>
       </c>
       <c r="B237">
         <v>49.98333333</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238">
-        <v>48.75483603818873</v>
+        <v>48.67249568922514</v>
       </c>
       <c r="B238">
         <v>37.079643</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239">
-        <v>45.63180616376325</v>
+        <v>44.88941767953891</v>
       </c>
       <c r="B239">
         <v>37.823196</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240">
-        <v>51.24199387904596</v>
+        <v>52.86300522249299</v>
       </c>
       <c r="B240">
         <v>37.901623</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241">
-        <v>34.9405052307107</v>
+        <v>36.14195186423225</v>
       </c>
       <c r="B241">
         <v>37.44</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>42.58645730069102</v>
+        <v>43.73072001779303</v>
       </c>
       <c r="B242">
         <v>37.41666667</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243">
-        <v>34.51767564538304</v>
+        <v>34.22716710893655</v>
       </c>
       <c r="B243">
         <v>40.322625</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244">
-        <v>37.38398028981317</v>
+        <v>37.46014754009816</v>
       </c>
       <c r="B244">
         <v>36.33305556</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>38.1386316540851</v>
+        <v>37.66932081321876</v>
       </c>
       <c r="B245">
         <v>38.38333333</v>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>45.503600397658</v>
+        <v>46.41264329201558</v>
       </c>
       <c r="B246">
         <v>37.56666667</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>33.5618989511898</v>
+        <v>34.06869030242994</v>
       </c>
       <c r="B247">
         <v>39.53333333</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>31.84831958071328</v>
+        <v>33.17814885926276</v>
       </c>
       <c r="B248">
         <v>39.46666667</v>
